--- a/data/bioassay_4.2.xlsx
+++ b/data/bioassay_4.2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCCF6C1-2F96-41CE-AF42-D88F786883C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F774BF0B-605E-4BF4-9809-F7322FA4D79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{32FA7EB8-539F-49DF-A9B1-534C12AF5415}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32FA7EB8-539F-49DF-A9B1-534C12AF5415}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +83,9 @@
   </si>
   <si>
     <t>Chl_a_change_control</t>
+  </si>
+  <si>
+    <t>percent_change_relative_to_control</t>
   </si>
 </sst>
 </file>
@@ -436,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B831804-87AE-45DF-92A2-CEE170B4EC7E}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +708,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,4 +825,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ECC8376-E8ED-40CB-B4F0-824AF0A94406}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>7.0746934748769217</v>
+      </c>
+      <c r="J1">
+        <f>((I1-I1)/I1)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>46.295117818631596</v>
+      </c>
+      <c r="C2">
+        <f>((B2-I1)/I1)*100</f>
+        <v>554.37630595630844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>11.529340260736088</v>
+      </c>
+      <c r="C3">
+        <f>((B3-I1)/I1)*100</f>
+        <v>62.965933459564674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>9.5876676325506125</v>
+      </c>
+      <c r="C4">
+        <f>((B4-I1)/I1)*100</f>
+        <v>35.520608300523001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>36.640658089004219</v>
+      </c>
+      <c r="C5">
+        <f>((B5-I1)/I1)*100</f>
+        <v>417.91159884339237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>36.78862183564614</v>
+      </c>
+      <c r="C6">
+        <f>((B6-I1)/I1)*100</f>
+        <v>420.00304983229182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/bioassay_4.2.xlsx
+++ b/data/bioassay_4.2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F774BF0B-605E-4BF4-9809-F7322FA4D79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEE8527-3378-4D00-9BD3-A7C4C3B82652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{32FA7EB8-539F-49DF-A9B1-534C12AF5415}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>percent_change_relative_to_control</t>
+  </si>
+  <si>
+    <t>percent_of_control</t>
   </si>
 </sst>
 </file>
@@ -832,7 +835,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,6 +850,9 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
@@ -869,6 +875,10 @@
         <f>((B2-I1)/I1)*100</f>
         <v>554.37630595630844</v>
       </c>
+      <c r="D2">
+        <f>(B2/$I$1)*100</f>
+        <v>654.37630595630844</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -881,6 +891,10 @@
         <f>((B3-I1)/I1)*100</f>
         <v>62.965933459564674</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">(B3/$I$1)*100</f>
+        <v>162.96593345956467</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -893,6 +907,10 @@
         <f>((B4-I1)/I1)*100</f>
         <v>35.520608300523001</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>135.52060830052298</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -905,6 +923,10 @@
         <f>((B5-I1)/I1)*100</f>
         <v>417.91159884339237</v>
       </c>
+      <c r="D5">
+        <f>(B5/$I$1)*100</f>
+        <v>517.91159884339231</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -916,6 +938,10 @@
       <c r="C6">
         <f>((B6-I1)/I1)*100</f>
         <v>420.00304983229182</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>520.00304983229194</v>
       </c>
     </row>
   </sheetData>
